--- a/biology/Botanique/Calliandra_tweediei/Calliandra_tweediei.xlsx
+++ b/biology/Botanique/Calliandra_tweediei/Calliandra_tweediei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliandra tweediei est une espèce d’arbuste à feuillage persistant de la famille des Fabaceae. Il est originaire d'Argentine, du Brésil, du Paraguay et d'Uruguay. Comme d'autres espèces du genre Calliandra, il est parfois appelé « arbre aux houpettes ». Il est largement cultivé pour ses fleurs rouges.
 </t>
@@ -511,7 +523,9 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliandra tweediei est un buisson de 2 à 5 m de hauteur. Les feuilles sont alternes, pétiolées, pubescentes, bipennées, portant deux à sept paires de folioles eux-mêmes formés de 15 à 20 paires de folioles de second ordre allongés de 3 à 7 mm de long sur 1 à 2 de large. Les fleurs sont groupées en glomérules axillaires, solitaires, de 5 à 7 cm de diamètre. Elles ont un calice soudé à 4 à 6 dents, une corolle tubulaire à 4 à 6 lobes, et surtout de longues étamines rouges. Le fruit est une gousse de 5 à 7 cm de long.
 La plante fleurit du printemps au début de l'automne.
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anneslia tweediei Lindm.
 Anneslia tweedii (Benth.)Lindm.
@@ -552,7 +568,7 @@
 Calliandra tweediei var. tweediei Benth.
 Feuilleea tweedii Kuntze
 Inga pulcherrima Paxton
-Mimosa yaguaronensis Larranaga[1]</t>
+Mimosa yaguaronensis Larranaga</t>
         </is>
       </c>
     </row>
